--- a/pandas_stock/AAPL.xlsx
+++ b/pandas_stock/AAPL.xlsx
@@ -60433,7 +60433,7 @@
         <v>307.7099914550781</v>
       </c>
       <c r="F2611" t="n">
-        <v>41561200</v>
+        <v>41587100</v>
       </c>
       <c r="G2611" t="n">
         <v>307.7099914550781</v>
